--- a/20 開発資料/02.画面、帳票設計/画面レイアウト(20_送受信ログ照会).xlsx
+++ b/20 開発資料/02.画面、帳票設計/画面レイアウト(20_送受信ログ照会).xlsx
@@ -663,15 +663,6 @@
     <t>処理名</t>
   </si>
   <si>
-    <t>処理日(年)</t>
-  </si>
-  <si>
-    <t>処理日(月)</t>
-  </si>
-  <si>
-    <t>処理日(日)</t>
-  </si>
-  <si>
     <t>処理結果</t>
   </si>
   <si>
@@ -776,6 +767,15 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送受信日(年)</t>
+  </si>
+  <si>
+    <t>送受信日(月)</t>
+  </si>
+  <si>
+    <t>送受信日(日)</t>
   </si>
 </sst>
 </file>
@@ -1571,12 +1571,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,51 +1629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2368,19 +2368,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>26671</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\LogFile.gif"/>
+        <xdr:cNvPr id="3" name="図 2" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\LogFile.gif"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2399,8 +2399,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="1543050"/>
-          <a:ext cx="6646545" cy="3577590"/>
+          <a:off x="200026" y="1543050"/>
+          <a:ext cx="6627495" cy="4193857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5088,7 +5088,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7416,30 +7416,30 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
+      <c r="O10" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
       <c r="S10" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T10" s="69"/>
-      <c r="U10" s="135" t="s">
+      <c r="U10" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="135" t="s">
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="137"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="135"/>
       <c r="AE10" s="70" t="s">
         <v>29</v>
       </c>
@@ -7452,10 +7452,10 @@
         <v>77</v>
       </c>
       <c r="AJ10" s="94"/>
-      <c r="AK10" s="144" t="s">
+      <c r="AK10" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" s="145"/>
+      <c r="AL10" s="137"/>
       <c r="AM10" s="91"/>
       <c r="AN10" s="92"/>
       <c r="AO10" s="92"/>
@@ -7495,30 +7495,30 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="141" t="s">
+      <c r="O11" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="143"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
       <c r="S11" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T11" s="69"/>
-      <c r="U11" s="135" t="s">
+      <c r="U11" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="135" t="s">
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="137"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="135"/>
       <c r="AE11" s="64" t="s">
         <v>29</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -7574,30 +7574,30 @@
       <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="141" t="s">
+      <c r="O12" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="143"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
       <c r="S12" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T12" s="69"/>
-      <c r="U12" s="135" t="s">
+      <c r="U12" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="135" t="s">
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="137"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="135"/>
       <c r="AE12" s="64" t="s">
         <v>29</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -7653,30 +7653,30 @@
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
       <c r="N13" s="51"/>
-      <c r="O13" s="141" t="s">
+      <c r="O13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="143"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
       <c r="S13" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T13" s="69"/>
-      <c r="U13" s="135" t="s">
+      <c r="U13" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="135" t="s">
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="137"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="135"/>
       <c r="AE13" s="64" t="s">
         <v>29</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -7732,30 +7732,30 @@
       <c r="L14" s="50"/>
       <c r="M14" s="50"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="141" t="s">
+      <c r="O14" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="143"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
       <c r="S14" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T14" s="69"/>
-      <c r="U14" s="135" t="s">
+      <c r="U14" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="135" t="s">
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="137"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="135"/>
       <c r="AE14" s="64" t="s">
         <v>29</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
@@ -7811,30 +7811,30 @@
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="51"/>
-      <c r="O15" s="141" t="s">
+      <c r="O15" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="143"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
       <c r="S15" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T15" s="69"/>
-      <c r="U15" s="135" t="s">
+      <c r="U15" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="135" t="s">
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="137"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="135"/>
       <c r="AE15" s="64" t="s">
         <v>29</v>
       </c>
@@ -7890,30 +7890,30 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="141" t="s">
+      <c r="O16" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="143"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
       <c r="S16" s="64" t="s">
         <v>69</v>
       </c>
       <c r="T16" s="69"/>
-      <c r="U16" s="135" t="s">
+      <c r="U16" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="135" t="s">
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="137"/>
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="135"/>
       <c r="AE16" s="64" t="s">
         <v>29</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>78</v>
       </c>
       <c r="AW16" s="69"/>
-      <c r="AX16" s="149"/>
+      <c r="AX16" s="146"/>
       <c r="AY16" s="67"/>
       <c r="AZ16" s="68"/>
     </row>
@@ -7969,22 +7969,22 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="143"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
       <c r="S17" s="64"/>
       <c r="T17" s="69"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="142"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="143"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="132"/>
       <c r="AE17" s="64"/>
       <c r="AF17" s="69"/>
       <c r="AG17" s="64"/>
@@ -8014,7 +8014,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -8028,48 +8028,48 @@
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="141" t="s">
+      <c r="O18" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="130" t="s">
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="T18" s="131"/>
-      <c r="U18" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="V18" s="142"/>
-      <c r="W18" s="142"/>
-      <c r="X18" s="142"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="142"/>
-      <c r="AC18" s="142"/>
-      <c r="AD18" s="143"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="132"/>
       <c r="AE18" s="64" t="s">
         <v>95</v>
       </c>
       <c r="AF18" s="69"/>
       <c r="AG18" s="64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AH18" s="69"/>
       <c r="AI18" s="64">
         <v>2</v>
       </c>
       <c r="AJ18" s="69"/>
-      <c r="AK18" s="130" t="s">
+      <c r="AK18" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AL18" s="131"/>
+      <c r="AL18" s="145"/>
       <c r="AM18" s="61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AN18" s="62"/>
       <c r="AO18" s="62"/>
@@ -8095,7 +8095,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -8109,34 +8109,34 @@
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
       <c r="N19" s="47"/>
-      <c r="O19" s="141" t="s">
+      <c r="O19" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="130" t="s">
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="131"/>
-      <c r="U19" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="130" t="s">
+      <c r="T19" s="145"/>
+      <c r="U19" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="AF19" s="131"/>
+      <c r="AF19" s="145"/>
       <c r="AG19" s="64" t="s">
         <v>65</v>
       </c>
@@ -8145,10 +8145,10 @@
         <v>14</v>
       </c>
       <c r="AJ19" s="69"/>
-      <c r="AK19" s="130" t="s">
+      <c r="AK19" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AL19" s="131"/>
+      <c r="AL19" s="145"/>
       <c r="AM19" s="61" t="s">
         <v>94</v>
       </c>
@@ -8158,17 +8158,17 @@
       <c r="AQ19" s="62"/>
       <c r="AR19" s="62"/>
       <c r="AS19" s="63"/>
-      <c r="AT19" s="130" t="s">
+      <c r="AT19" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="AU19" s="131"/>
-      <c r="AV19" s="130" t="s">
+      <c r="AU19" s="145"/>
+      <c r="AV19" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="AW19" s="131"/>
-      <c r="AX19" s="132"/>
-      <c r="AY19" s="133"/>
-      <c r="AZ19" s="134"/>
+      <c r="AW19" s="145"/>
+      <c r="AX19" s="147"/>
+      <c r="AY19" s="148"/>
+      <c r="AZ19" s="149"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="33">
@@ -8190,30 +8190,30 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="141" t="s">
+      <c r="O20" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="143"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
       <c r="S20" s="64" t="s">
         <v>81</v>
       </c>
       <c r="T20" s="69"/>
-      <c r="U20" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="143"/>
+      <c r="U20" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="132"/>
       <c r="AE20" s="64" t="s">
         <v>96</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -8269,30 +8269,30 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="141" t="s">
+      <c r="O21" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="143"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
       <c r="S21" s="64" t="s">
         <v>81</v>
       </c>
       <c r="T21" s="69"/>
-      <c r="U21" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="142"/>
-      <c r="Y21" s="143"/>
-      <c r="Z21" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="143"/>
+      <c r="U21" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="132"/>
       <c r="AE21" s="64" t="s">
         <v>96</v>
       </c>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="AL21" s="69"/>
       <c r="AM21" s="61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AN21" s="62"/>
       <c r="AO21" s="62"/>
@@ -8336,7 +8336,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -8350,36 +8350,36 @@
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
       <c r="N22" s="47"/>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="130" t="s">
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="131"/>
-      <c r="U22" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="143"/>
-      <c r="Z22" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA22" s="142"/>
-      <c r="AB22" s="142"/>
-      <c r="AC22" s="142"/>
-      <c r="AD22" s="143"/>
-      <c r="AE22" s="130" t="s">
+      <c r="T22" s="145"/>
+      <c r="U22" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="AF22" s="131"/>
+      <c r="AF22" s="145"/>
       <c r="AG22" s="64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH22" s="69"/>
       <c r="AI22" s="64">
@@ -8397,17 +8397,17 @@
       <c r="AQ22" s="62"/>
       <c r="AR22" s="62"/>
       <c r="AS22" s="63"/>
-      <c r="AT22" s="130" t="s">
+      <c r="AT22" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="AU22" s="131"/>
-      <c r="AV22" s="130" t="s">
+      <c r="AU22" s="145"/>
+      <c r="AV22" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="AW22" s="131"/>
-      <c r="AX22" s="132"/>
-      <c r="AY22" s="133"/>
-      <c r="AZ22" s="134"/>
+      <c r="AW22" s="145"/>
+      <c r="AX22" s="147"/>
+      <c r="AY22" s="148"/>
+      <c r="AZ22" s="149"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
@@ -8415,7 +8415,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8429,36 +8429,36 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="141" t="s">
+      <c r="O23" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="143"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
       <c r="S23" s="64" t="s">
         <v>35</v>
       </c>
       <c r="T23" s="69"/>
-      <c r="U23" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="142"/>
-      <c r="AD23" s="143"/>
+      <c r="U23" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="132"/>
       <c r="AE23" s="64" t="s">
         <v>96</v>
       </c>
       <c r="AF23" s="69"/>
       <c r="AG23" s="64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AH23" s="69"/>
       <c r="AI23" s="64">
@@ -8494,7 +8494,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -8508,36 +8508,36 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="141" t="s">
+      <c r="O24" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="143"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
       <c r="S24" s="64" t="s">
         <v>35</v>
       </c>
       <c r="T24" s="69"/>
-      <c r="U24" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="143"/>
-      <c r="Z24" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="142"/>
-      <c r="AC24" s="142"/>
-      <c r="AD24" s="143"/>
+      <c r="U24" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="132"/>
       <c r="AE24" s="64" t="s">
         <v>96</v>
       </c>
       <c r="AF24" s="69"/>
       <c r="AG24" s="64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AH24" s="69"/>
       <c r="AI24" s="64">
@@ -8563,7 +8563,7 @@
         <v>77</v>
       </c>
       <c r="AW24" s="69"/>
-      <c r="AX24" s="149"/>
+      <c r="AX24" s="146"/>
       <c r="AY24" s="67"/>
       <c r="AZ24" s="68"/>
     </row>
@@ -8597,20 +8597,20 @@
         <v>88</v>
       </c>
       <c r="T25" s="69"/>
-      <c r="U25" s="135" t="s">
+      <c r="U25" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="135" t="s">
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="137"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="135"/>
       <c r="AE25" s="64" t="s">
         <v>29</v>
       </c>
@@ -8701,6 +8701,16 @@
     </row>
   </sheetData>
   <mergeCells count="240">
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
     <mergeCell ref="AT14:AU14"/>
     <mergeCell ref="AV14:AW14"/>
     <mergeCell ref="AX14:AZ14"/>
@@ -8720,23 +8730,6 @@
     <mergeCell ref="AM14:AS14"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
     <mergeCell ref="O25:R25"/>
     <mergeCell ref="AV25:AW25"/>
     <mergeCell ref="AX25:AZ25"/>
@@ -8751,6 +8744,16 @@
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AV20:AW20"/>
     <mergeCell ref="AV26:AW26"/>
     <mergeCell ref="AX26:AZ26"/>
     <mergeCell ref="O26:R26"/>
@@ -8763,11 +8766,6 @@
     <mergeCell ref="AK26:AL26"/>
     <mergeCell ref="AM26:AS26"/>
     <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="U21:Y21"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="AE15:AF15"/>
@@ -8777,13 +8775,21 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="AX11:AZ11"/>
     <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AX20:AZ20"/>
     <mergeCell ref="AV16:AW16"/>
     <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AZ12"/>
     <mergeCell ref="AV21:AW21"/>
     <mergeCell ref="AX16:AZ16"/>
     <mergeCell ref="AV18:AW18"/>
@@ -8793,8 +8799,18 @@
     <mergeCell ref="AX18:AZ18"/>
     <mergeCell ref="AX15:AZ15"/>
     <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AK22:AL22"/>
     <mergeCell ref="AT23:AU23"/>
     <mergeCell ref="AK23:AL23"/>
     <mergeCell ref="AK21:AL21"/>
@@ -8807,13 +8823,6 @@
     <mergeCell ref="AE25:AF25"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
     <mergeCell ref="AX24:AZ24"/>
     <mergeCell ref="AM24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
@@ -8825,15 +8834,7 @@
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AI24:AJ24"/>
     <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AV24:AW24"/>
     <mergeCell ref="AM22:AS22"/>
     <mergeCell ref="AM23:AS23"/>
     <mergeCell ref="AG20:AH20"/>
@@ -8875,6 +8876,13 @@
     <mergeCell ref="AI17:AJ17"/>
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AK18:AL18"/>
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
@@ -8917,14 +8925,6 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AZ19"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="S9:T9"/>
